--- a/RD参数文件/公共参数.xlsx
+++ b/RD参数文件/公共参数.xlsx
@@ -843,6 +843,9 @@
     <t>MA805</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>JM.DCE</t>
   </si>
   <si>
@@ -877,6 +880,9 @@
   </si>
   <si>
     <t>m1805</t>
+  </si>
+  <si>
+    <t>MA</t>
   </si>
   <si>
     <t>Y.DCE</t>
@@ -1389,14 +1395,6 @@
   </si>
   <si>
     <t>206周</t>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7032,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -7043,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C3" s="1">
         <v>6</v>
@@ -7054,7 +7052,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C4" s="1">
         <v>7</v>
@@ -7065,7 +7063,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -7076,7 +7074,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C6" s="1">
         <v>9</v>
@@ -7087,7 +7085,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -9050,7 +9048,7 @@
         <v>43155</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -9061,7 +9059,7 @@
         <v>43162</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -9072,7 +9070,7 @@
         <v>43169</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -9083,7 +9081,7 @@
         <v>43176</v>
       </c>
       <c r="C165" s="72" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -9094,7 +9092,7 @@
         <v>43183</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -9105,7 +9103,7 @@
         <v>43190</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
@@ -9116,7 +9114,7 @@
         <v>43197</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -9127,7 +9125,7 @@
         <v>43204</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -9138,7 +9136,7 @@
         <v>43211</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -9149,7 +9147,7 @@
         <v>43218</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
@@ -9160,7 +9158,7 @@
         <v>43225</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
@@ -9171,7 +9169,7 @@
         <v>43232</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
@@ -9182,7 +9180,7 @@
         <v>43239</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
@@ -9193,7 +9191,7 @@
         <v>43246</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
@@ -9204,7 +9202,7 @@
         <v>43253</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
@@ -9215,7 +9213,7 @@
         <v>43260</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
@@ -9226,7 +9224,7 @@
         <v>43267</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
@@ -9237,7 +9235,7 @@
         <v>43274</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
@@ -9248,7 +9246,7 @@
         <v>43281</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
@@ -9259,7 +9257,7 @@
         <v>43288</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
@@ -9270,7 +9268,7 @@
         <v>43295</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
@@ -9281,7 +9279,7 @@
         <v>43302</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
@@ -9292,7 +9290,7 @@
         <v>43309</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -9303,7 +9301,7 @@
         <v>43316</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
@@ -9314,7 +9312,7 @@
         <v>43323</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
@@ -9325,7 +9323,7 @@
         <v>43330</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
@@ -9336,7 +9334,7 @@
         <v>43337</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
@@ -9347,7 +9345,7 @@
         <v>43344</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
@@ -9358,7 +9356,7 @@
         <v>43351</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -9369,7 +9367,7 @@
         <v>43358</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
@@ -9380,7 +9378,7 @@
         <v>43365</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
@@ -9391,7 +9389,7 @@
         <v>43372</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
@@ -9402,7 +9400,7 @@
         <v>43379</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
@@ -9413,7 +9411,7 @@
         <v>43386</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
@@ -9424,7 +9422,7 @@
         <v>43393</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -9435,7 +9433,7 @@
         <v>43400</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
@@ -9446,7 +9444,7 @@
         <v>43407</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
@@ -9457,7 +9455,7 @@
         <v>43414</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
@@ -9468,7 +9466,7 @@
         <v>43421</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
@@ -9479,7 +9477,7 @@
         <v>43428</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -9490,7 +9488,7 @@
         <v>43435</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
@@ -9501,7 +9499,7 @@
         <v>43442</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
@@ -9512,7 +9510,7 @@
         <v>43449</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
@@ -9523,7 +9521,7 @@
         <v>43456</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
@@ -9534,7 +9532,7 @@
         <v>43463</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
@@ -9545,7 +9543,7 @@
         <v>43470</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -9651,7 +9649,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10146,7 +10144,7 @@
         <v>220</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>221</v>
@@ -10338,10 +10336,10 @@
         <v>219</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>253</v>
@@ -10406,7 +10404,7 @@
         <v>256</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>257</v>
@@ -10604,7 +10602,7 @@
         <v>268</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>449</v>
+        <v>269</v>
       </c>
       <c r="H15" s="20">
         <v>10</v>
@@ -10654,22 +10652,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D16" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H16" s="44">
         <v>10</v>
@@ -10719,22 +10717,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H17" s="20">
         <v>10</v>
@@ -10749,7 +10747,7 @@
         <v>0.625</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M17" s="20">
         <v>5</v>
@@ -10784,22 +10782,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>448</v>
+        <v>282</v>
       </c>
       <c r="H18" s="20">
         <v>10</v>
@@ -10849,22 +10847,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H19" s="20">
         <v>10</v>
@@ -10914,22 +10912,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>219</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H20" s="38">
         <v>10</v>
@@ -10979,22 +10977,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>219</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H21" s="26">
         <v>10</v>
@@ -11044,22 +11042,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>219</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H22" s="20">
         <v>10</v>
@@ -11109,22 +11107,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H23" s="20">
         <v>10</v>
@@ -11139,7 +11137,7 @@
         <v>0.625</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M23" s="20">
         <v>10</v>
@@ -11174,22 +11172,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>219</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H24" s="20">
         <v>10</v>
@@ -11239,22 +11237,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>198</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H25" s="20">
         <v>10</v>
@@ -11304,22 +11302,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>198</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H26" s="26">
         <v>10</v>
@@ -11334,7 +11332,7 @@
         <v>0.625</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M26" s="26">
         <v>20</v>
@@ -11369,22 +11367,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>198</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H27" s="20">
         <v>10</v>
@@ -11434,22 +11432,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>198</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H28" s="20">
         <v>10</v>
@@ -11499,22 +11497,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H29" s="20">
         <v>10</v>
@@ -11564,22 +11562,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>219</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H30" s="20">
         <v>10</v>
@@ -11594,7 +11592,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M30" s="20">
         <v>1000</v>
@@ -11629,22 +11627,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>219</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H31" s="26">
         <v>10</v>
@@ -11659,7 +11657,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M31" s="26">
         <v>15</v>
@@ -11694,22 +11692,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H32" s="20">
         <v>10</v>
@@ -11724,7 +11722,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M32" s="20">
         <v>10000</v>
@@ -11759,22 +11757,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H33" s="20">
         <v>10</v>
@@ -11789,7 +11787,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M33" s="20">
         <v>10000</v>
@@ -11824,22 +11822,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H34" s="20">
         <v>10</v>
@@ -11854,7 +11852,7 @@
         <v>0.625</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M34" s="20">
         <v>5</v>
@@ -11889,22 +11887,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H35" s="20">
         <v>10</v>
@@ -11919,7 +11917,7 @@
         <v>0.625</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M35" s="20">
         <v>5</v>
@@ -11954,22 +11952,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>192</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H36" s="26">
         <v>10</v>
@@ -11984,7 +11982,7 @@
         <v>0.625</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M36" s="26">
         <v>10</v>
@@ -12019,22 +12017,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H37" s="20">
         <v>10</v>
@@ -12049,7 +12047,7 @@
         <v>0.625</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M37" s="20">
         <v>10</v>
@@ -12084,22 +12082,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>198</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H38" s="32">
         <v>10</v>
@@ -12114,7 +12112,7 @@
         <v>0.625</v>
       </c>
       <c r="L38" s="32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M38" s="32">
         <v>5</v>
@@ -12166,70 +12164,70 @@
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L1" s="54" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O1" s="53" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P1" s="53" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q1" s="54" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="R1" s="55" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="S1" s="53" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="T1" s="53" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="U1" s="53" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="V1" s="54" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
@@ -13189,7 +13187,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C16" s="37">
         <v>1</v>
@@ -13257,7 +13255,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C17" s="37">
         <v>0</v>
@@ -13325,7 +13323,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C18" s="37">
         <v>0</v>
@@ -13393,7 +13391,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C19" s="37">
         <v>0</v>
@@ -13461,7 +13459,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C20" s="37">
         <v>1</v>
@@ -13529,7 +13527,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C21" s="37">
         <v>0</v>
@@ -13597,7 +13595,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C22" s="37">
         <v>1</v>
@@ -13665,7 +13663,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C23" s="37">
         <v>0</v>
@@ -13733,7 +13731,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C24" s="37">
         <v>0</v>
@@ -13801,7 +13799,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C25" s="37">
         <v>0</v>
@@ -13869,7 +13867,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C26" s="37">
         <v>0</v>
@@ -13937,7 +13935,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C27" s="37">
         <v>1</v>
@@ -14005,7 +14003,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C28" s="37">
         <v>0</v>
@@ -14073,7 +14071,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C29" s="37">
         <v>0</v>
@@ -14141,7 +14139,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C30" s="37">
         <v>0</v>
@@ -14209,7 +14207,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C31" s="37">
         <v>0</v>
@@ -14277,7 +14275,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C32" s="37">
         <v>0</v>
@@ -14345,7 +14343,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C33" s="37">
         <v>0</v>
@@ -14413,7 +14411,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C34" s="37">
         <v>1</v>
@@ -14481,7 +14479,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C35" s="37">
         <v>0</v>
@@ -14549,7 +14547,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C36" s="37">
         <v>0</v>
@@ -14617,7 +14615,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C37" s="37">
         <v>0</v>
@@ -14685,7 +14683,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C38" s="62">
         <v>0</v>
@@ -14767,67 +14765,67 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L1" s="54" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O1" s="53" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P1" s="53" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q1" s="54" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="R1" s="55" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="S1" s="53" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="T1" s="53" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="U1" s="53" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
@@ -15745,7 +15743,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C16" s="37">
         <v>1</v>
@@ -15810,7 +15808,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C17" s="37">
         <v>0</v>
@@ -15875,7 +15873,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C18" s="37">
         <v>0</v>
@@ -15940,7 +15938,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C19" s="37">
         <v>0</v>
@@ -16005,7 +16003,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C20" s="37">
         <v>1</v>
@@ -16070,7 +16068,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C21" s="37">
         <v>0</v>
@@ -16135,7 +16133,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C22" s="37">
         <v>1</v>
@@ -16200,7 +16198,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C23" s="37">
         <v>0</v>
@@ -16265,7 +16263,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C24" s="37">
         <v>0</v>
@@ -16330,7 +16328,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C25" s="37">
         <v>0</v>
@@ -16395,7 +16393,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C26" s="37">
         <v>0</v>
@@ -16460,7 +16458,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C27" s="37">
         <v>1</v>
@@ -16525,7 +16523,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C28" s="37">
         <v>0</v>
@@ -16590,7 +16588,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C29" s="37">
         <v>0</v>
@@ -16655,7 +16653,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C30" s="37">
         <v>0</v>
@@ -16720,7 +16718,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C31" s="37">
         <v>0</v>
@@ -16785,7 +16783,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C32" s="37">
         <v>0</v>
@@ -16850,7 +16848,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C33" s="37">
         <v>0</v>
@@ -16915,7 +16913,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C34" s="37">
         <v>1</v>
@@ -16980,7 +16978,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C35" s="37">
         <v>0</v>
@@ -17045,7 +17043,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C36" s="37">
         <v>0</v>
@@ -17110,7 +17108,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C37" s="37">
         <v>0</v>
@@ -17175,7 +17173,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C38" s="62">
         <v>0</v>
